--- a/CalibrationData.xlsx
+++ b/CalibrationData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://virginiatech-my.sharepoint.com/personal/jeremyhopwood_vt_edu/Documents/Coursework/AOE 7994 - Research and Dissertation/AirDataUnit/NSL-AirDataUnit/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeremyhopwood\OneDrive - Virginia Tech\Coursework\AOE 7994 - Research and Dissertation\AirDataUnit\NSL-AirDataUnit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="71" documentId="8_{EA630CD6-0B84-4D9B-84F7-C2C78E8711D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{918F2D4A-6581-4304-944D-45225759E898}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8FB57B1-1666-47BF-BD66-34221ACAC05F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4560" yWindow="4560" windowWidth="28800" windowHeight="15460" xr2:uid="{BB8FED1F-53F7-47EF-A9B5-EBB098D287A0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BB8FED1F-53F7-47EF-A9B5-EBB098D287A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Date</t>
   </si>
@@ -49,6 +49,12 @@
   </si>
   <si>
     <t>beta vane</t>
+  </si>
+  <si>
+    <t>ADU-002</t>
+  </si>
+  <si>
+    <t>ADU-003</t>
   </si>
 </sst>
 </file>
@@ -2378,18 +2384,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3A0248-2D50-424B-99D1-F4C1194A45C1}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
         <v>3</v>
       </c>
@@ -2397,7 +2403,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2423,7 +2429,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>44522</v>
       </c>
@@ -2449,6 +2455,16 @@
         <v>536</v>
       </c>
     </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
